--- a/DATA_goal/Junction_Flooding_382.xlsx
+++ b/DATA_goal/Junction_Flooding_382.xlsx
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.88</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.58</v>
+        <v>25.8</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.94</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.7</v>
+        <v>6.97</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.7</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.62</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.8</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.75</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.35</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.8</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.41</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.04</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>3.25</v>
+        <v>32.45</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.82</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.13</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.6</v>
+        <v>16.02</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.99</v>
+        <v>19.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.66</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.29</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.18</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.22</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.63</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.83</v>
+        <v>78.29000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.64</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.75</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.73</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.73</v>
+        <v>17.27</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_382.xlsx
+++ b/DATA_goal/Junction_Flooding_382.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.84027777778</v>
+        <v>45063.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.88</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.94</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.36</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.77</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.74</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.28</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.17</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.76</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.22</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.36</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.49</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.67</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.88</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.49</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.48</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.26</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.8</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.51</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.3</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.94</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.8</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.63</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.59</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.05</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.03</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.55</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.83</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.84722222222</v>
+        <v>45063.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.08</v>
+        <v>10.569</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.24</v>
+        <v>7.263</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.97</v>
+        <v>22.369</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.7</v>
+        <v>18.538</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.62</v>
+        <v>8.318</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.91</v>
+        <v>35.443</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.94</v>
+        <v>12.798</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.14</v>
+        <v>5.449</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.78</v>
+        <v>8.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.5</v>
+        <v>8.939</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.8</v>
+        <v>9.281000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.72</v>
+        <v>2.66</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.49</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.09</v>
+        <v>11.631</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.75</v>
+        <v>7.137</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.59</v>
+        <v>1.584</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.898</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.57</v>
+        <v>118.591</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.2</v>
+        <v>23.271</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.52</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.43</v>
+        <v>15.341</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.56</v>
+        <v>8.215999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.983</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.35</v>
+        <v>16.548</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.8</v>
+        <v>6.744</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.06</v>
+        <v>6.172</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.02</v>
+        <v>7.207</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.88</v>
+        <v>9.292</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.87</v>
+        <v>32.113</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.88</v>
+        <v>4.203</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.25</v>
+        <v>9.545999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.85416666666</v>
+        <v>45063.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.11</v>
+        <v>5.765</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.62</v>
+        <v>3.883</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.43</v>
+        <v>0.967</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.77</v>
+        <v>12.135</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.76</v>
+        <v>10.071</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.21</v>
+        <v>4.537</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>20.531</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.74</v>
+        <v>6.981</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.51</v>
+        <v>2.943</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.35</v>
+        <v>4.475</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.93</v>
+        <v>4.898</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.83</v>
+        <v>5.019</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.84</v>
+        <v>1.453</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.09</v>
+        <v>4.512</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.7</v>
+        <v>6.316</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.12</v>
+        <v>3.996</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.41</v>
+        <v>0.998</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.499</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.45</v>
+        <v>61.358</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.3</v>
+        <v>12.742</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.69</v>
+        <v>4.164</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.11</v>
+        <v>8.324999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.82</v>
+        <v>4.551</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.503</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.49</v>
+        <v>9.351000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.13</v>
+        <v>3.678</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.51</v>
+        <v>3.417</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.32</v>
+        <v>3.982</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.24</v>
+        <v>5.082</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>18.546</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.18</v>
+        <v>2.252</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.8</v>
+        <v>5.207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.86111111111</v>
+        <v>45063.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.75</v>
+        <v>20.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.5</v>
+        <v>15.19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.46</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.02</v>
+        <v>44.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.76</v>
+        <v>36.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.34</v>
+        <v>16.26</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.88</v>
+        <v>59.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.49</v>
+        <v>25.01</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.66</v>
+        <v>11.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.56</v>
+        <v>16.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.29</v>
+        <v>17.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.18</v>
+        <v>18.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.81</v>
+        <v>5.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.22</v>
+        <v>16.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.01</v>
+        <v>22.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.63</v>
+        <v>13.61</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.84</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.29000000000001</v>
+        <v>238.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.64</v>
+        <v>45.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.39</v>
+        <v>14.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.72</v>
+        <v>30.31</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.75</v>
+        <v>16.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.74</v>
+        <v>2.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>29.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.59</v>
+        <v>13.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.75</v>
+        <v>11.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.84</v>
+        <v>13.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.73</v>
+        <v>18.83</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.12</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.27</v>
+        <v>53.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.81</v>
+        <v>8.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.31</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.16</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.26</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.14</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_382.xlsx
+++ b/DATA_goal/Junction_Flooding_382.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45063.50694444445</v>
+        <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.541</v>
+        <v>5.885</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.304</v>
+        <v>1.942</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.244</v>
+        <v>1.363</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>49.627</v>
+        <v>7.767</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.058</v>
+        <v>3.737</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.526</v>
+        <v>0.96</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>61.718</v>
+        <v>6.281</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.505</v>
+        <v>2.168</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.158</v>
+        <v>0.758</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.744</v>
+        <v>1.218</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.59</v>
+        <v>2.359</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.45</v>
+        <v>5.493</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.915</v>
+        <v>0.668</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.422</v>
+        <v>0.884</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.954</v>
+        <v>2.495</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.331</v>
+        <v>1.484</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.814</v>
+        <v>1.256</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.604</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>273.066</v>
+        <v>25.797</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>51.313</v>
+        <v>5.514</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.004</v>
+        <v>3.303</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.141</v>
+        <v>3.938</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.76</v>
+        <v>2.803</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.295</v>
+        <v>0.246</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.618</v>
+        <v>1.46</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.02</v>
+        <v>1.634</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.452</v>
+        <v>0.588</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.735</v>
+        <v>2.048</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.304</v>
+        <v>3.034</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.186</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>54.593</v>
+        <v>2.547</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.503</v>
+        <v>0.594</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.259</v>
+        <v>1.826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45063.51388888889</v>
+        <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.569</v>
+        <v>4.083</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.263</v>
+        <v>2.239</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.62</v>
+        <v>0.613</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>22.369</v>
+        <v>6.972</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.538</v>
+        <v>4.697</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.318</v>
+        <v>1.616</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.443</v>
+        <v>7.914</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.798</v>
+        <v>2.94</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.449</v>
+        <v>1.145</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.32</v>
+        <v>1.781</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.939</v>
+        <v>2.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.281000000000001</v>
+        <v>3.802</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.66</v>
+        <v>0.718</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>1.488</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.631</v>
+        <v>3.09</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.137</v>
+        <v>1.749</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.584</v>
+        <v>0.589</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.898</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.591</v>
+        <v>26.574</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.271</v>
+        <v>6.196</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.635</v>
+        <v>2.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.341</v>
+        <v>4.435</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.215999999999999</v>
+        <v>2.557</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.983</v>
+        <v>0.286</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>16.548</v>
+        <v>3.354</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.744</v>
+        <v>1.804</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.172</v>
+        <v>1.062</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.207</v>
+        <v>2.022</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.292</v>
+        <v>2.876</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>0.173</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.113</v>
+        <v>5.87</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.203</v>
+        <v>0.88</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.545999999999999</v>
+        <v>2.246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45063.52083333334</v>
+        <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>4.112</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>2.622</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>7.774</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>5.765</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>3.883</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>12.135</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>10.071</v>
-      </c>
       <c r="G4" s="4" t="n">
-        <v>4.537</v>
+        <v>2.211</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>20.531</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.981</v>
+        <v>3.736</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.943</v>
+        <v>1.515</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.475</v>
+        <v>2.349</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.898</v>
+        <v>2.93</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.019</v>
+        <v>3.828</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.453</v>
+        <v>0.842</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.512</v>
+        <v>2.09</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.316</v>
+        <v>3.699</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.996</v>
+        <v>2.12</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.998</v>
+        <v>0.409</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.499</v>
+        <v>0.005</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>61.358</v>
+        <v>32.452</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.742</v>
+        <v>7.301</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.164</v>
+        <v>2.693</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.324999999999999</v>
+        <v>5.111</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.551</v>
+        <v>2.823</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.503</v>
+        <v>0.341</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>9.351000000000001</v>
+        <v>4.493</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.678</v>
+        <v>2.132</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.417</v>
+        <v>1.51</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.982</v>
+        <v>2.319</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.082</v>
+        <v>3.243</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.141</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>18.546</v>
+        <v>8.135999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.252</v>
+        <v>1.176</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.207</v>
+        <v>2.804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45063.52777777778</v>
+        <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.66</v>
+        <v>7.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.19</v>
+        <v>5.505</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.25</v>
+        <v>0.463</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.63</v>
+        <v>16.017</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.94</v>
+        <v>12.763</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.26</v>
+        <v>5.343</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>59.47</v>
+        <v>19.878</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.01</v>
+        <v>8.488</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.07</v>
+        <v>3.657</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.61</v>
+        <v>5.562</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.96</v>
+        <v>6.288</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.85</v>
+        <v>7.184</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.19</v>
+        <v>1.807</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.17</v>
+        <v>5.219</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.98</v>
+        <v>8.007</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.61</v>
+        <v>4.635</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.351</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.125</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>238.74</v>
+        <v>78.292</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>45.12</v>
+        <v>15.641</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.92</v>
+        <v>5.395</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.31</v>
+        <v>10.719</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.13</v>
+        <v>5.752</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.04</v>
+        <v>0.737</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.3</v>
+        <v>9.614000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.18</v>
+        <v>4.59</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.71</v>
+        <v>3.754</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.75</v>
+        <v>4.837</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.83</v>
+        <v>6.729</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.118</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>53.64</v>
+        <v>17.269</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.41</v>
+        <v>2.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.66</v>
+        <v>6.335</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.57</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>36.16</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.43</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.3</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>17.71</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.14</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_382.xlsx
+++ b/DATA_goal/Junction_Flooding_382.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.84027777778</v>
+        <v>45063.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.885</v>
+        <v>23.541</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.942</v>
+        <v>16.304</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.363</v>
+        <v>4.244</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>7.767</v>
+        <v>49.627</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.737</v>
+        <v>41.058</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.96</v>
+        <v>18.526</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.281</v>
+        <v>61.718</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.168</v>
+        <v>28.505</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.758</v>
+        <v>12.158</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.218</v>
+        <v>18.744</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.359</v>
+        <v>19.59</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.493</v>
+        <v>20.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.668</v>
+        <v>5.915</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.884</v>
+        <v>18.422</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.495</v>
+        <v>25.954</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.484</v>
+        <v>15.331</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.256</v>
+        <v>3.814</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>2.604</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>25.797</v>
+        <v>273.066</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.514</v>
+        <v>51.313</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.303</v>
+        <v>17.004</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.938</v>
+        <v>34.141</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.803</v>
+        <v>17.76</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.246</v>
+        <v>2.295</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.46</v>
+        <v>30.618</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.634</v>
+        <v>15.02</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.588</v>
+        <v>13.452</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.048</v>
+        <v>15.735</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.034</v>
+        <v>20.304</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.186</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.547</v>
+        <v>54.593</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.594</v>
+        <v>9.503</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.826</v>
+        <v>21.259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.84722222222</v>
+        <v>45063.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.083</v>
+        <v>10.569</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.239</v>
+        <v>7.263</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.613</v>
+        <v>1.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>6.972</v>
+        <v>22.369</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.697</v>
+        <v>18.538</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.616</v>
+        <v>8.318</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7.914</v>
+        <v>35.443</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.94</v>
+        <v>12.798</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.145</v>
+        <v>5.449</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.781</v>
+        <v>8.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.5</v>
+        <v>8.939</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.802</v>
+        <v>9.281000000000001</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.718</v>
+        <v>2.66</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.488</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.09</v>
+        <v>11.631</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.749</v>
+        <v>7.137</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.589</v>
+        <v>1.584</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.898</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.574</v>
+        <v>118.591</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>6.196</v>
+        <v>23.271</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.52</v>
+        <v>7.635</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.435</v>
+        <v>15.341</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.557</v>
+        <v>8.215999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.286</v>
+        <v>0.983</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.354</v>
+        <v>16.548</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.804</v>
+        <v>6.744</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.062</v>
+        <v>6.172</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.022</v>
+        <v>7.207</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.876</v>
+        <v>9.292</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.173</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.87</v>
+        <v>32.113</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.88</v>
+        <v>4.203</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.246</v>
+        <v>9.545999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.85416666666</v>
+        <v>45063.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.112</v>
+        <v>5.765</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.622</v>
+        <v>3.883</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.426</v>
+        <v>0.967</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>7.774</v>
+        <v>12.135</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.765</v>
+        <v>10.071</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.211</v>
+        <v>4.537</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>20.531</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.736</v>
+        <v>6.981</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.515</v>
+        <v>2.943</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.349</v>
+        <v>4.475</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.93</v>
+        <v>4.898</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.828</v>
+        <v>5.019</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.842</v>
+        <v>1.453</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.09</v>
+        <v>4.512</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.699</v>
+        <v>6.316</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.12</v>
+        <v>3.996</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.409</v>
+        <v>0.998</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.005</v>
+        <v>0.499</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>32.452</v>
+        <v>61.358</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>7.301</v>
+        <v>12.742</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.693</v>
+        <v>4.164</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>5.111</v>
+        <v>8.324999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.823</v>
+        <v>4.551</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.341</v>
+        <v>0.503</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.493</v>
+        <v>9.351000000000001</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.132</v>
+        <v>3.678</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.51</v>
+        <v>3.417</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.319</v>
+        <v>3.982</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>3.243</v>
+        <v>5.082</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.141</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.135999999999999</v>
+        <v>18.546</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.176</v>
+        <v>2.252</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.804</v>
+        <v>5.207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.86111111111</v>
+        <v>45063.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.75</v>
+        <v>20.66</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.505</v>
+        <v>15.19</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.463</v>
+        <v>1.25</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.017</v>
+        <v>44.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.763</v>
+        <v>36.94</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.343</v>
+        <v>16.26</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>19.878</v>
+        <v>59.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.488</v>
+        <v>25.01</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.657</v>
+        <v>11.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.562</v>
+        <v>16.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.288</v>
+        <v>17.96</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>7.184</v>
+        <v>18.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.807</v>
+        <v>5.19</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.219</v>
+        <v>16.17</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.007</v>
+        <v>22.98</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.635</v>
+        <v>13.61</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.351</v>
+        <v>0.87</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.125</v>
+        <v>0.84</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.292</v>
+        <v>238.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.641</v>
+        <v>45.12</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.395</v>
+        <v>14.92</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.719</v>
+        <v>30.31</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.752</v>
+        <v>16.13</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.737</v>
+        <v>2.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.614000000000001</v>
+        <v>29.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.59</v>
+        <v>13.18</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.754</v>
+        <v>11.71</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.837</v>
+        <v>13.75</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.729</v>
+        <v>18.83</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.118</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.269</v>
+        <v>53.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.81</v>
+        <v>8.41</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.335</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>27.44</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.31</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>36.16</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>14.94</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.26</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>17.71</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.77</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.14</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>
